--- a/Code/Results/Cases/Case_5_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.64849149057974</v>
+        <v>16.74135869433504</v>
       </c>
       <c r="C2">
-        <v>17.96998519359375</v>
+        <v>10.40645936437756</v>
       </c>
       <c r="D2">
-        <v>7.891415740381616</v>
+        <v>9.655582376328857</v>
       </c>
       <c r="E2">
-        <v>11.23584683978023</v>
+        <v>13.86504579679887</v>
       </c>
       <c r="F2">
-        <v>21.56299586673784</v>
+        <v>30.51856598266494</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.309327283748551</v>
+        <v>9.830610554194411</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.35955731168673</v>
+        <v>22.67541293113988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99596862162794</v>
+        <v>16.0337889323745</v>
       </c>
       <c r="C3">
-        <v>16.82433569857116</v>
+        <v>9.769872995893483</v>
       </c>
       <c r="D3">
-        <v>7.520130130452905</v>
+        <v>9.586803596301898</v>
       </c>
       <c r="E3">
-        <v>10.74574251577579</v>
+        <v>13.79737846091927</v>
       </c>
       <c r="F3">
-        <v>21.11266842780031</v>
+        <v>30.61092083064</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.19796728601645</v>
+        <v>9.839267032918404</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.32136824143489</v>
+        <v>22.80050043012217</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.92197311083425</v>
+        <v>15.58366149769168</v>
       </c>
       <c r="C4">
-        <v>16.0813263473793</v>
+        <v>9.356148757909725</v>
       </c>
       <c r="D4">
-        <v>7.285242582952532</v>
+        <v>9.545502157929738</v>
       </c>
       <c r="E4">
-        <v>10.4397799871318</v>
+        <v>13.75838719220569</v>
       </c>
       <c r="F4">
-        <v>20.8643804188847</v>
+        <v>30.67833523616045</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.132701203733718</v>
+        <v>9.846274117652481</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.32314831716568</v>
+        <v>22.88484312272922</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.46929053628533</v>
+        <v>15.3965278838583</v>
       </c>
       <c r="C5">
-        <v>15.76859161358358</v>
+        <v>9.18185437567225</v>
       </c>
       <c r="D5">
-        <v>7.187894972339483</v>
+        <v>9.528917775186825</v>
       </c>
       <c r="E5">
-        <v>10.31399715254157</v>
+        <v>13.7431527262215</v>
       </c>
       <c r="F5">
-        <v>20.77019561848765</v>
+        <v>30.70848496132128</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.10689365494661</v>
+        <v>9.849554982984539</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.32988215761447</v>
+        <v>22.92109894140573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.39321291138486</v>
+        <v>15.36523844454909</v>
       </c>
       <c r="C6">
-        <v>15.71606146983974</v>
+        <v>9.152570486922825</v>
       </c>
       <c r="D6">
-        <v>7.171635670951622</v>
+        <v>9.526179189183996</v>
       </c>
       <c r="E6">
-        <v>10.29304982472055</v>
+        <v>13.74066293238982</v>
       </c>
       <c r="F6">
-        <v>20.75497515657086</v>
+        <v>30.71365257970405</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.102656155574937</v>
+        <v>9.850125459237217</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.33135320336913</v>
+        <v>22.92723277414734</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.91592902199582</v>
+        <v>15.58115240270041</v>
       </c>
       <c r="C7">
-        <v>16.07714898286462</v>
+        <v>9.353821159798466</v>
       </c>
       <c r="D7">
-        <v>7.283936155689</v>
+        <v>9.545277481460364</v>
       </c>
       <c r="E7">
-        <v>10.43808785635104</v>
+        <v>13.75817906859627</v>
       </c>
       <c r="F7">
-        <v>20.86308204652056</v>
+        <v>30.67873102398608</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.132349951610339</v>
+        <v>9.846316642171834</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.32321525478252</v>
+        <v>22.8853244605959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.09095639711462</v>
+        <v>16.50077614483926</v>
       </c>
       <c r="C8">
-        <v>17.58317357654515</v>
+        <v>10.19173382986081</v>
       </c>
       <c r="D8">
-        <v>7.764892513407422</v>
+        <v>9.631682356991785</v>
       </c>
       <c r="E8">
-        <v>11.06799659997647</v>
+        <v>13.841190832577</v>
       </c>
       <c r="F8">
-        <v>21.40181692528757</v>
+        <v>30.54817883362026</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.270289577926165</v>
+        <v>9.833244147035407</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.34095551350646</v>
+        <v>22.71697242902223</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.8900530760912</v>
+        <v>18.17079458782194</v>
       </c>
       <c r="C9">
-        <v>20.22334510349353</v>
+        <v>11.65199651999141</v>
       </c>
       <c r="D9">
-        <v>8.649234400800006</v>
+        <v>9.807920635204955</v>
       </c>
       <c r="E9">
-        <v>12.2571842561353</v>
+        <v>14.02370279445567</v>
       </c>
       <c r="F9">
-        <v>22.68504502438231</v>
+        <v>30.37774723420653</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.565117330412932</v>
+        <v>9.821032360781007</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.59013992114603</v>
+        <v>22.44709805205695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.40394700131525</v>
+        <v>19.30636051691138</v>
       </c>
       <c r="C10">
-        <v>21.97438369266891</v>
+        <v>12.61204613125867</v>
       </c>
       <c r="D10">
-        <v>9.259011446699903</v>
+        <v>9.94076171789939</v>
       </c>
       <c r="E10">
-        <v>13.09627668998179</v>
+        <v>14.16901682208175</v>
       </c>
       <c r="F10">
-        <v>23.76832895859322</v>
+        <v>30.30547356949216</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.796112724021921</v>
+        <v>9.820236166297818</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.9218765398873</v>
+        <v>22.28616836538812</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.48895264987058</v>
+        <v>19.80146181603461</v>
       </c>
       <c r="C11">
-        <v>22.73070286182587</v>
+        <v>13.02417847875567</v>
       </c>
       <c r="D11">
-        <v>9.52717156972242</v>
+        <v>10.00175217461035</v>
       </c>
       <c r="E11">
-        <v>13.46955279978939</v>
+        <v>14.23737480410094</v>
       </c>
       <c r="F11">
-        <v>24.29179414743802</v>
+        <v>30.28422967106768</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.904243963568141</v>
+        <v>9.821645231203954</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.10842359454091</v>
+        <v>22.22119525824375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.89152879405686</v>
+        <v>19.98574531011619</v>
       </c>
       <c r="C12">
-        <v>23.01138335077237</v>
+        <v>13.17670081036793</v>
       </c>
       <c r="D12">
-        <v>9.627358684298656</v>
+        <v>10.02491357235215</v>
       </c>
       <c r="E12">
-        <v>13.60963911976248</v>
+        <v>14.26356765386686</v>
       </c>
       <c r="F12">
-        <v>24.49442887318821</v>
+        <v>30.27786736953861</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.945624433776105</v>
+        <v>9.8224329212455</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.18442749678537</v>
+        <v>22.19778618970866</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.80519343626757</v>
+        <v>19.94620052110499</v>
       </c>
       <c r="C13">
-        <v>22.95118711007644</v>
+        <v>13.14401003402629</v>
       </c>
       <c r="D13">
-        <v>9.605842439983878</v>
+        <v>10.01992267020315</v>
       </c>
       <c r="E13">
-        <v>13.57952593367612</v>
+        <v>14.25791316902744</v>
       </c>
       <c r="F13">
-        <v>24.45059169941746</v>
+        <v>30.27916265004497</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.936693180902158</v>
+        <v>9.822251987524593</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.16781668661793</v>
+        <v>22.20277444202605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.5222382365866</v>
+        <v>19.81668765893341</v>
       </c>
       <c r="C14">
-        <v>22.75390887272487</v>
+        <v>13.0367976137004</v>
       </c>
       <c r="D14">
-        <v>9.535441408968788</v>
+        <v>10.00365644707196</v>
       </c>
       <c r="E14">
-        <v>13.48110337740069</v>
+        <v>14.23952364845333</v>
       </c>
       <c r="F14">
-        <v>24.30837663985448</v>
+        <v>30.28367247621409</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.907639691193015</v>
+        <v>9.821704946136043</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.11456773845772</v>
+        <v>22.21924537303272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34784417058506</v>
+        <v>19.73693742919219</v>
       </c>
       <c r="C15">
-        <v>22.63232726523945</v>
+        <v>12.97066537185796</v>
       </c>
       <c r="D15">
-        <v>9.492140969653896</v>
+        <v>9.993701019038209</v>
       </c>
       <c r="E15">
-        <v>13.42065070776244</v>
+        <v>14.22829902636576</v>
       </c>
       <c r="F15">
-        <v>24.22184013333703</v>
+        <v>30.2866542143398</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.889899939922898</v>
+        <v>9.821402939813607</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.08265619504459</v>
+        <v>22.22949021188946</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.3318716786718</v>
+        <v>19.27356233458896</v>
       </c>
       <c r="C16">
-        <v>21.92415212962294</v>
+        <v>12.5846167111861</v>
       </c>
       <c r="D16">
-        <v>9.24129781384241</v>
+        <v>9.936785847967494</v>
       </c>
       <c r="E16">
-        <v>13.07170760218552</v>
+        <v>14.16459338536197</v>
       </c>
       <c r="F16">
-        <v>23.73473636179523</v>
+        <v>30.30709684357646</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.789106977871463</v>
+        <v>9.820179674855899</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.91042332174714</v>
+        <v>22.29058113146247</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69369372401805</v>
+        <v>18.98371088406165</v>
       </c>
       <c r="C17">
-        <v>21.47944731809503</v>
+        <v>12.34148232660937</v>
       </c>
       <c r="D17">
-        <v>9.085023059538097</v>
+        <v>9.90200314595679</v>
       </c>
       <c r="E17">
-        <v>12.8554391098427</v>
+        <v>14.12607743442113</v>
       </c>
       <c r="F17">
-        <v>23.44376897448464</v>
+        <v>30.32262454306314</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.728050596798821</v>
+        <v>9.8198825207886</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.81406953492787</v>
+        <v>22.330175185397</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.32110880436372</v>
+        <v>18.81498034558319</v>
       </c>
       <c r="C18">
-        <v>21.21987312158094</v>
+        <v>12.19932252460653</v>
       </c>
       <c r="D18">
-        <v>8.994270274521982</v>
+        <v>9.882050701333492</v>
       </c>
       <c r="E18">
-        <v>12.73025550475293</v>
+        <v>14.10413727660715</v>
       </c>
       <c r="F18">
-        <v>23.27929961875756</v>
+        <v>30.33265021616471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.693219862787328</v>
+        <v>9.819878368973125</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.76199132825354</v>
+        <v>22.35372308781221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.19400568072926</v>
+        <v>18.75750862612264</v>
       </c>
       <c r="C19">
-        <v>21.13133268849584</v>
+        <v>12.15079225009724</v>
       </c>
       <c r="D19">
-        <v>8.963395080186581</v>
+        <v>9.875304814568905</v>
       </c>
       <c r="E19">
-        <v>12.68773644077505</v>
+        <v>14.09674584057944</v>
       </c>
       <c r="F19">
-        <v>23.22410910114201</v>
+        <v>30.33623241797875</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.681476311982132</v>
+        <v>9.819905621004274</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.74492484150547</v>
+        <v>22.36182868655836</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.762199416379</v>
+        <v>19.01477555135667</v>
       </c>
       <c r="C20">
-        <v>21.52717889390244</v>
+        <v>12.36760408186225</v>
       </c>
       <c r="D20">
-        <v>9.101748843553766</v>
+        <v>9.905700379962298</v>
       </c>
       <c r="E20">
-        <v>12.87854364074103</v>
+        <v>14.13015557896143</v>
       </c>
       <c r="F20">
-        <v>23.47444413332857</v>
+        <v>30.32085823847426</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.734520465434091</v>
+        <v>9.819896897863904</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.82397887452359</v>
+        <v>22.325880099958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.60557299620645</v>
+        <v>19.85481640185663</v>
       </c>
       <c r="C21">
-        <v>22.81200898370654</v>
+        <v>13.06838468946346</v>
       </c>
       <c r="D21">
-        <v>9.556156987648315</v>
+        <v>10.0084325691042</v>
       </c>
       <c r="E21">
-        <v>13.51004713221556</v>
+        <v>14.24491689763331</v>
       </c>
       <c r="F21">
-        <v>24.35002895631403</v>
+        <v>30.28230210609044</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.916161667329694</v>
+        <v>9.821858734463861</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.13006094145639</v>
+        <v>22.21437494928537</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.76205858918747</v>
+        <v>20.38513559736473</v>
       </c>
       <c r="C22">
-        <v>23.6184086112566</v>
+        <v>13.50573263669406</v>
       </c>
       <c r="D22">
-        <v>9.845208959337022</v>
+        <v>10.075949616848</v>
       </c>
       <c r="E22">
-        <v>13.9153852623305</v>
+        <v>14.32170224031975</v>
       </c>
       <c r="F22">
-        <v>24.94798239351134</v>
+        <v>30.2669125168948</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.037401250811066</v>
+        <v>9.824621670701003</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.36145260161018</v>
+        <v>22.14846915645766</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.14919146766763</v>
+        <v>20.10383777703407</v>
       </c>
       <c r="C23">
-        <v>23.1910422411102</v>
+        <v>13.27420243844966</v>
       </c>
       <c r="D23">
-        <v>9.691669729931331</v>
+        <v>10.03988507414156</v>
       </c>
       <c r="E23">
-        <v>13.69973701236689</v>
+        <v>14.28056311540912</v>
       </c>
       <c r="F23">
-        <v>24.62648994173847</v>
+        <v>30.27422597261662</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.972463181460925</v>
+        <v>9.823011781666366</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.23501418961673</v>
+        <v>22.18300313648146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73124571929442</v>
+        <v>19.00073771978765</v>
       </c>
       <c r="C24">
-        <v>21.50561162420409</v>
+        <v>12.35580184474569</v>
       </c>
       <c r="D24">
-        <v>9.094189943344277</v>
+        <v>9.904028720445474</v>
       </c>
       <c r="E24">
-        <v>12.86810071931961</v>
+        <v>14.12831121568393</v>
       </c>
       <c r="F24">
-        <v>23.46056713607528</v>
+        <v>30.32165336338393</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.731594592068191</v>
+        <v>9.819889878730969</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.81948854911727</v>
+        <v>22.32781946435491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.91150946523564</v>
+        <v>17.73442768632358</v>
       </c>
       <c r="C25">
-        <v>19.54244886859695</v>
+        <v>11.2767034259503</v>
       </c>
       <c r="D25">
-        <v>8.416773942476913</v>
+        <v>9.759595803215394</v>
       </c>
       <c r="E25">
-        <v>11.9411668519425</v>
+        <v>13.97229656838438</v>
       </c>
       <c r="F25">
-        <v>22.31330618238007</v>
+        <v>30.41460723276341</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.482800986651192</v>
+        <v>9.822899182246912</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.49783904488114</v>
+        <v>22.51359136460956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_68/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74135869433504</v>
+        <v>24.64849149057975</v>
       </c>
       <c r="C2">
-        <v>10.40645936437756</v>
+        <v>17.96998519359378</v>
       </c>
       <c r="D2">
-        <v>9.655582376328857</v>
+        <v>7.891415740381544</v>
       </c>
       <c r="E2">
-        <v>13.86504579679887</v>
+        <v>11.23584683978024</v>
       </c>
       <c r="F2">
-        <v>30.51856598266494</v>
+        <v>21.56299586673788</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.830610554194411</v>
+        <v>6.309327283748513</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.67541293113988</v>
+        <v>14.35955731168682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.0337889323745</v>
+        <v>22.99596862162787</v>
       </c>
       <c r="C3">
-        <v>9.769872995893483</v>
+        <v>16.82433569857118</v>
       </c>
       <c r="D3">
-        <v>9.586803596301898</v>
+        <v>7.520130130452954</v>
       </c>
       <c r="E3">
-        <v>13.79737846091927</v>
+        <v>10.74574251577576</v>
       </c>
       <c r="F3">
-        <v>30.61092083064</v>
+        <v>21.11266842780041</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.839267032918404</v>
+        <v>6.197967286016379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.80050043012217</v>
+        <v>14.32136824143493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.58366149769168</v>
+        <v>21.92197311083433</v>
       </c>
       <c r="C4">
-        <v>9.356148757909725</v>
+        <v>16.0813263473792</v>
       </c>
       <c r="D4">
-        <v>9.545502157929738</v>
+        <v>7.285242582952581</v>
       </c>
       <c r="E4">
-        <v>13.75838719220569</v>
+        <v>10.43977998713184</v>
       </c>
       <c r="F4">
-        <v>30.67833523616045</v>
+        <v>20.86438041888461</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.846274117652481</v>
+        <v>6.132701203733739</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.88484312272922</v>
+        <v>14.3231483171656</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.3965278838583</v>
+        <v>21.46929053628526</v>
       </c>
       <c r="C5">
-        <v>9.18185437567225</v>
+        <v>15.76859161358353</v>
       </c>
       <c r="D5">
-        <v>9.528917775186825</v>
+        <v>7.187894972339408</v>
       </c>
       <c r="E5">
-        <v>13.7431527262215</v>
+        <v>10.31399715254156</v>
       </c>
       <c r="F5">
-        <v>30.70848496132128</v>
+        <v>20.77019561848777</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.849554982984539</v>
+        <v>6.106893654946673</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.92109894140573</v>
+        <v>14.32988215761465</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36523844454909</v>
+        <v>21.39321291138484</v>
       </c>
       <c r="C6">
-        <v>9.152570486922825</v>
+        <v>15.7160614698397</v>
       </c>
       <c r="D6">
-        <v>9.526179189183996</v>
+        <v>7.171635670951616</v>
       </c>
       <c r="E6">
-        <v>13.74066293238982</v>
+        <v>10.29304982472055</v>
       </c>
       <c r="F6">
-        <v>30.71365257970405</v>
+        <v>20.75497515657069</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.850125459237217</v>
+        <v>6.102656155574968</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.92723277414734</v>
+        <v>14.33135320336904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.58115240270041</v>
+        <v>21.91592902199587</v>
       </c>
       <c r="C7">
-        <v>9.353821159798466</v>
+        <v>16.0771489828647</v>
       </c>
       <c r="D7">
-        <v>9.545277481460364</v>
+        <v>7.28393615568894</v>
       </c>
       <c r="E7">
-        <v>13.75817906859627</v>
+        <v>10.43808785635101</v>
       </c>
       <c r="F7">
-        <v>30.67873102398608</v>
+        <v>20.86308204652046</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.846316642171834</v>
+        <v>6.132349951610338</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.8853244605959</v>
+        <v>14.32321525478244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.50077614483926</v>
+        <v>24.09095639711458</v>
       </c>
       <c r="C8">
-        <v>10.19173382986081</v>
+        <v>17.58317357654524</v>
       </c>
       <c r="D8">
-        <v>9.631682356991785</v>
+        <v>7.764892513407361</v>
       </c>
       <c r="E8">
-        <v>13.841190832577</v>
+        <v>11.06799659997641</v>
       </c>
       <c r="F8">
-        <v>30.54817883362026</v>
+        <v>21.40181692528744</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.833244147035407</v>
+        <v>6.270289577926162</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.71697242902223</v>
+        <v>14.3409555135064</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.17079458782194</v>
+        <v>27.89005307609128</v>
       </c>
       <c r="C9">
-        <v>11.65199651999141</v>
+        <v>20.22334510349349</v>
       </c>
       <c r="D9">
-        <v>9.807920635204955</v>
+        <v>8.649234400799996</v>
       </c>
       <c r="E9">
-        <v>14.02370279445567</v>
+        <v>12.25718425613525</v>
       </c>
       <c r="F9">
-        <v>30.37774723420653</v>
+        <v>22.68504502438225</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.821032360781007</v>
+        <v>6.565117330412883</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.44709805205695</v>
+        <v>14.59013992114601</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.30636051691138</v>
+        <v>30.40394700131527</v>
       </c>
       <c r="C10">
-        <v>12.61204613125867</v>
+        <v>21.97438369266894</v>
       </c>
       <c r="D10">
-        <v>9.94076171789939</v>
+        <v>9.259011446699914</v>
       </c>
       <c r="E10">
-        <v>14.16901682208175</v>
+        <v>13.09627668998175</v>
       </c>
       <c r="F10">
-        <v>30.30547356949216</v>
+        <v>23.7683289585932</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.820236166297818</v>
+        <v>6.796112724021881</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.28616836538812</v>
+        <v>14.92187653988728</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.80146181603461</v>
+        <v>31.48895264987051</v>
       </c>
       <c r="C11">
-        <v>13.02417847875567</v>
+        <v>22.7307028618259</v>
       </c>
       <c r="D11">
-        <v>10.00175217461035</v>
+        <v>9.52717156972242</v>
       </c>
       <c r="E11">
-        <v>14.23737480410094</v>
+        <v>13.46955279978939</v>
       </c>
       <c r="F11">
-        <v>30.28422967106768</v>
+        <v>24.291794147438</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.821645231203954</v>
+        <v>6.904243963568122</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.22119525824375</v>
+        <v>15.10842359454092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.98574531011619</v>
+        <v>31.89152879405684</v>
       </c>
       <c r="C12">
-        <v>13.17670081036793</v>
+        <v>23.0113833507723</v>
       </c>
       <c r="D12">
-        <v>10.02491357235215</v>
+        <v>9.627358684298667</v>
       </c>
       <c r="E12">
-        <v>14.26356765386686</v>
+        <v>13.60963911976249</v>
       </c>
       <c r="F12">
-        <v>30.27786736953861</v>
+        <v>24.49442887318822</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.8224329212455</v>
+        <v>6.94562443377615</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.19778618970866</v>
+        <v>15.1844274967854</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.94620052110499</v>
+        <v>31.80519343626754</v>
       </c>
       <c r="C13">
-        <v>13.14401003402629</v>
+        <v>22.9511871100765</v>
       </c>
       <c r="D13">
-        <v>10.01992267020315</v>
+        <v>9.605842439983928</v>
       </c>
       <c r="E13">
-        <v>14.25791316902744</v>
+        <v>13.57952593367611</v>
       </c>
       <c r="F13">
-        <v>30.27916265004497</v>
+        <v>24.45059169941747</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.822251987524593</v>
+        <v>6.936693180902127</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.20277444202605</v>
+        <v>15.16781668661795</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.81668765893341</v>
+        <v>31.52223823658661</v>
       </c>
       <c r="C14">
-        <v>13.0367976137004</v>
+        <v>22.75390887272503</v>
       </c>
       <c r="D14">
-        <v>10.00365644707196</v>
+        <v>9.535441408968808</v>
       </c>
       <c r="E14">
-        <v>14.23952364845333</v>
+        <v>13.48110337740068</v>
       </c>
       <c r="F14">
-        <v>30.28367247621409</v>
+        <v>24.30837663985447</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.821704946136043</v>
+        <v>6.907639691193006</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.21924537303272</v>
+        <v>15.11456773845769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.73693742919219</v>
+        <v>31.34784417058499</v>
       </c>
       <c r="C15">
-        <v>12.97066537185796</v>
+        <v>22.63232726523938</v>
       </c>
       <c r="D15">
-        <v>9.993701019038209</v>
+        <v>9.492140969653871</v>
       </c>
       <c r="E15">
-        <v>14.22829902636576</v>
+        <v>13.42065070776244</v>
       </c>
       <c r="F15">
-        <v>30.2866542143398</v>
+        <v>24.22184013333707</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.821402939813607</v>
+        <v>6.889899939922898</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.22949021188946</v>
+        <v>15.08265619504465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.27356233458896</v>
+        <v>30.33187167867185</v>
       </c>
       <c r="C16">
-        <v>12.5846167111861</v>
+        <v>21.92415212962312</v>
       </c>
       <c r="D16">
-        <v>9.936785847967494</v>
+        <v>9.241297813842438</v>
       </c>
       <c r="E16">
-        <v>14.16459338536197</v>
+        <v>13.07170760218552</v>
       </c>
       <c r="F16">
-        <v>30.30709684357646</v>
+        <v>23.73473636179509</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.820179674855899</v>
+        <v>6.789106977871421</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.29058113146247</v>
+        <v>14.910423321747</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.98371088406165</v>
+        <v>29.69369372401804</v>
       </c>
       <c r="C17">
-        <v>12.34148232660937</v>
+        <v>21.47944731809496</v>
       </c>
       <c r="D17">
-        <v>9.90200314595679</v>
+        <v>9.08502305953807</v>
       </c>
       <c r="E17">
-        <v>14.12607743442113</v>
+        <v>12.85543910984267</v>
       </c>
       <c r="F17">
-        <v>30.32262454306314</v>
+        <v>23.44376897448463</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.8198825207886</v>
+        <v>6.728050596798838</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.330175185397</v>
+        <v>14.81406953492789</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.81498034558319</v>
+        <v>29.32110880436363</v>
       </c>
       <c r="C18">
-        <v>12.19932252460653</v>
+        <v>21.21987312158105</v>
       </c>
       <c r="D18">
-        <v>9.882050701333492</v>
+        <v>8.994270274521995</v>
       </c>
       <c r="E18">
-        <v>14.10413727660715</v>
+        <v>12.73025550475294</v>
       </c>
       <c r="F18">
-        <v>30.33265021616471</v>
+        <v>23.27929961875763</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.819878368973125</v>
+        <v>6.693219862787335</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.35372308781221</v>
+        <v>14.76199132825363</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.75750862612264</v>
+        <v>29.19400568072924</v>
       </c>
       <c r="C19">
-        <v>12.15079225009724</v>
+        <v>21.13133268849588</v>
       </c>
       <c r="D19">
-        <v>9.875304814568905</v>
+        <v>8.963395080186558</v>
       </c>
       <c r="E19">
-        <v>14.09674584057944</v>
+        <v>12.68773644077505</v>
       </c>
       <c r="F19">
-        <v>30.33623241797875</v>
+        <v>23.22410910114201</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.819905621004274</v>
+        <v>6.681476311982147</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.36182868655836</v>
+        <v>14.74492484150549</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.01477555135667</v>
+        <v>29.76219941637901</v>
       </c>
       <c r="C20">
-        <v>12.36760408186225</v>
+        <v>21.52717889390238</v>
       </c>
       <c r="D20">
-        <v>9.905700379962298</v>
+        <v>9.101748843553729</v>
       </c>
       <c r="E20">
-        <v>14.13015557896143</v>
+        <v>12.87854364074101</v>
       </c>
       <c r="F20">
-        <v>30.32085823847426</v>
+        <v>23.4744441333286</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.819896897863904</v>
+        <v>6.734520465434077</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.325880099958</v>
+        <v>14.82397887452364</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.85481640185663</v>
+        <v>31.60557299620645</v>
       </c>
       <c r="C21">
-        <v>13.06838468946346</v>
+        <v>22.81200898370656</v>
       </c>
       <c r="D21">
-        <v>10.0084325691042</v>
+        <v>9.556156987648349</v>
       </c>
       <c r="E21">
-        <v>14.24491689763331</v>
+        <v>13.51004713221557</v>
       </c>
       <c r="F21">
-        <v>30.28230210609044</v>
+        <v>24.35002895631401</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.821858734463861</v>
+        <v>6.916161667329693</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.21437494928537</v>
+        <v>15.13006094145637</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.38513559736473</v>
+        <v>32.76205858918743</v>
       </c>
       <c r="C22">
-        <v>13.50573263669406</v>
+        <v>23.61840861125663</v>
       </c>
       <c r="D22">
-        <v>10.075949616848</v>
+        <v>9.84520895933697</v>
       </c>
       <c r="E22">
-        <v>14.32170224031975</v>
+        <v>13.91538526233047</v>
       </c>
       <c r="F22">
-        <v>30.2669125168948</v>
+        <v>24.94798239351135</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.824621670701003</v>
+        <v>7.037401250811063</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.14846915645766</v>
+        <v>15.36145260161021</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.10383777703407</v>
+        <v>32.14919146766766</v>
       </c>
       <c r="C23">
-        <v>13.27420243844966</v>
+        <v>23.19104224111024</v>
       </c>
       <c r="D23">
-        <v>10.03988507414156</v>
+        <v>9.691669729931347</v>
       </c>
       <c r="E23">
-        <v>14.28056311540912</v>
+        <v>13.69973701236688</v>
       </c>
       <c r="F23">
-        <v>30.27422597261662</v>
+        <v>24.62648994173843</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.823011781666366</v>
+        <v>6.972463181460897</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.18300313648146</v>
+        <v>15.23501418961669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.00073771978765</v>
+        <v>29.73124571929431</v>
       </c>
       <c r="C24">
-        <v>12.35580184474569</v>
+        <v>21.5056116242042</v>
       </c>
       <c r="D24">
-        <v>9.904028720445474</v>
+        <v>9.09418994334426</v>
       </c>
       <c r="E24">
-        <v>14.12831121568393</v>
+        <v>12.86810071931961</v>
       </c>
       <c r="F24">
-        <v>30.32165336338393</v>
+        <v>23.46056713607542</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.819889878730969</v>
+        <v>6.731594592068205</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.32781946435491</v>
+        <v>14.8194885491174</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.73442768632358</v>
+        <v>26.91150946523569</v>
       </c>
       <c r="C25">
-        <v>11.2767034259503</v>
+        <v>19.54244886859693</v>
       </c>
       <c r="D25">
-        <v>9.759595803215394</v>
+        <v>8.416773942476876</v>
       </c>
       <c r="E25">
-        <v>13.97229656838438</v>
+        <v>11.94116685194248</v>
       </c>
       <c r="F25">
-        <v>30.41460723276341</v>
+        <v>22.31330618238</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.822899182246912</v>
+        <v>6.482800986651189</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.51359136460956</v>
+        <v>14.4978390448811</v>
       </c>
     </row>
   </sheetData>
